--- a/medicine/Psychotrope/Hommel_(bière)/Hommel_(bière).xlsx
+++ b/medicine/Psychotrope/Hommel_(bière)/Hommel_(bière).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hommel_(bi%C3%A8re)</t>
+          <t>Hommel_(bière)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La bière Hommel est fortement houblonnée, avec un goût légèrement amer. Hommel signifie houblon en néerlandais. C'est la brasserie Van Eecke, située à Watou, à quelques kilomètres de Poperinge, Belgique, capitale de la culture houblonnière, qui la produit. Ce village de Watou, situé à 1 kilomètre de la frontière française possède d'ailleurs deux brasseries (Van Eecke et St. Bernardus) produisant des bières très typées. La « poperings hommel bier » est une bière blonde spéciale titrant 7,5 degrés d'alcool.
  Portail de la bière   Portail de la Flandre-Occidentale                    </t>
